--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Provisoire" sheetId="1" r:id="rId1"/>
-    <sheet name="Reel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Tâche / Date</t>
   </si>
@@ -55,9 +54,6 @@
     <t>Gestion des commentaires</t>
   </si>
   <si>
-    <t>Affichage des recettes</t>
-  </si>
-  <si>
     <t>Planning Réel</t>
   </si>
 </sst>
@@ -65,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,8 +113,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +145,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -388,7 +402,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,9 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,6 +432,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -432,31 +467,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O23"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -812,52 +832,52 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>42122</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>42123</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>42124</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>42129</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>42130</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>42131</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>42132</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>42136</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>42137</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>42139</v>
       </c>
       <c r="M3" s="1"/>
@@ -865,19 +885,19 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -886,16 +906,16 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -904,16 +924,16 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -922,16 +942,16 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -940,16 +960,16 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -958,16 +978,16 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -976,75 +996,73 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="11"/>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="11"/>
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1060,153 +1078,219 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+    <row r="15" spans="2:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+    <row r="16" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42122</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42123</v>
+      </c>
+      <c r="E16" s="6">
+        <v>42124</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42129</v>
+      </c>
+      <c r="G16" s="6">
+        <v>42130</v>
+      </c>
+      <c r="H16" s="6">
+        <v>42131</v>
+      </c>
+      <c r="I16" s="6">
+        <v>42132</v>
+      </c>
+      <c r="J16" s="6">
+        <v>42136</v>
+      </c>
+      <c r="K16" s="6">
+        <v>42137</v>
+      </c>
+      <c r="L16" s="7">
+        <v>42139</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B15:L15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -1216,227 +1300,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="11.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>42122</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42123</v>
-      </c>
-      <c r="E3" s="7">
-        <v>42124</v>
-      </c>
-      <c r="F3" s="7">
-        <v>42129</v>
-      </c>
-      <c r="G3" s="7">
-        <v>42130</v>
-      </c>
-      <c r="H3" s="7">
-        <v>42131</v>
-      </c>
-      <c r="I3" s="7">
-        <v>42132</v>
-      </c>
-      <c r="J3" s="7">
-        <v>42136</v>
-      </c>
-      <c r="K3" s="7">
-        <v>42137</v>
-      </c>
-      <c r="L3" s="8">
-        <v>42139</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -458,6 +458,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,15 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -832,19 +832,19 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1011,7 +1011,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="15"/>
@@ -1029,7 +1029,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
@@ -1079,19 +1079,19 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="15"/>
@@ -1268,20 +1268,20 @@
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="15"/>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1269,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="15"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
